--- a/molecular/data/real_6_smiles_yields_product_2_train_2.xlsx
+++ b/molecular/data/real_6_smiles_yields_product_2_train_2.xlsx
@@ -454,17 +454,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=CC=C1Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -489,27 +489,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)N=C1)C2=CC=CC=C2Cl</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ClC1=CC=CC(C(Cl)(Cl)Cl)=N1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,27 +534,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ClC1=CC=CC(C(Cl)(Cl)CCC2=CC=C(OC)C=C2)=N1</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NCC1=CC=CC2=C1C=CC=C2)=O)=O</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=C(Cl)N=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -579,27 +579,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)C=C1)C2=CC=C(Cl)N=C2</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[H]C(Cl)(Cl)Cl</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C=CC1=CC2=CC=CC=C2C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -624,27 +624,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[H]C(Cl)(Cl)CCC1=CC2=CC=CC=C2C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=C(C(OC)=O)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -669,34 +669,30 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)C=C1)C2=CC=C(C(OC)=O)C=C2</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=CC=C(Cl)N=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -714,11 +710,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(OC)C=C1)C2=CC=C(Cl)N=C2</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -729,19 +725,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N[C@@H](CC1=CC=CC=C1)C(OC)=O</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -759,11 +751,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)N[C@@H](CC2=CC=CC=C2)C(OC)=O</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -774,12 +766,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=C(C2=CC=CC=N2)C=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C=CC1=C(C=CN2C(OC(C)(C)C)=O)C2=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -789,7 +781,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -804,11 +796,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=C(C=CN2C(OC(C)(C)C)=O)C2=CC=C1)(Cl)Cl)NC3=C(C4=CC=CC=N4)C=CC=C3</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -819,12 +811,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)O[C@H]1CCC2C3CCC4=CC(OC)=CC=C4C3CC[C@@]21C</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -849,11 +841,11 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)O[C@H]2CCC3C4CCC5=CC(OC)=CC=C5C4CC[C@@]32C</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -864,19 +856,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C(F)(F)F</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -894,11 +882,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ClC(CCC1=CN=C(OC)C=C1)(Cl)C(F)(F)F</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -909,12 +897,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC(C(Cl)(Cl)Cl)=O)CC(OC)=O)N[C@@H](CC1=CC=CC=C1)C(OC)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -939,11 +927,11 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC(C(CCC1=CN=C(OC)C=C1)(Cl)Cl)=O)CC(OC)=O)N[C@@H](CC2=CC=CC=C2)C(OC)=O</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -954,7 +942,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CC(OC1)(C)O[C@H]1[C@@H]2[C@H](OC(C3=CC(NC(C(Cl)(Cl)Cl)=O)=CC=C3)=O)[C@@H]4[C@@H](OC(C)(C)O4)O2</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -984,11 +972,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CC(OC1)(C)O[C@H]1[C@@H]2[C@H](OC(C3=CC(NC(C(CCC4=CC=C(C)C=C4)(Cl)Cl)=O)=CC=C3)=O)[C@@H]5[C@@H](OC(C)(C)O5)O2</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -999,19 +987,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)Cl)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C=CC1=CN=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1029,11 +1013,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)CCC1=CN=C(OC)C=C1)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -1044,19 +1028,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)Cl)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C=CCC(OC)=O</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1074,11 +1054,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)CCCC(OC)=O)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1089,12 +1069,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N(C/C=C/C1=CC=CC=C1)C2=CC=CC=C2</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N(C/C=C/C1=CC=CC=C1)C2=CC=CC=C2</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1119,34 +1099,30 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)C(CC1=CC=CC=C1)C2)N2C3=CC=CC=C3</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCCC1=CC=CC=N1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1164,34 +1140,30 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NCCC2=CC=CC=N2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N1C(C=CC=C2)=C2CC1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1209,27 +1181,27 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)N2C(C=CC=C3)=C3CC2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>50</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=C2C(C=CC=N2)=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1239,7 +1211,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1254,27 +1226,27 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NC2=C3C(C=CC=N3)=CC=C2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)Cl)=O)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C=CCCCCCCCC</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1289,7 +1261,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1299,27 +1271,27 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCCCCCCCCC)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=CC=C1SCC2=CC=CC=C2</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C=C(CC)CC</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1344,34 +1316,30 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CC(CC)CC)NC1=CC=CC=C1SCC2=CC=CC=C2</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C=CC1=CC(N(C(OC(C)(C)C)=O)C=C2)=C2C=C1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1389,27 +1357,27 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC(N(C(OC(C)(C)C)=O)C=C2)=C2C=C1)(Cl)Cl)NC3=CC=C(OC)C=C3</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1434,42 +1402,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=CC=C1)(Cl)Cl)NC2=CC=C(OC)C=C2</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(C(F)(F)F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1479,34 +1443,30 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NC2=CC=C(C(F)(F)F)C=C2</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1514,7 +1474,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1524,37 +1484,33 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>O=CN(C)C</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1569,27 +1525,27 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1614,27 +1570,27 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1644,7 +1600,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CC#N</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1659,27 +1615,27 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>60</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1704,32 +1660,32 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=P(O)(O[Na])O</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1749,30 +1705,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1790,30 +1750,30 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O)C=C1)OC</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1831,32 +1791,32 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1869,20 +1829,24 @@
           <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SC1=CC=CC=C1</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1892,14 +1856,10 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1917,17 +1877,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1937,12 +1897,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1962,32 +1922,32 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CN1C([BH-](C#N)C#N)=[N+](C)C=C1</t>
+          <t>[BH3-]C1=[N+](C)C=CN1C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2007,32 +1967,32 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2052,42 +2012,38 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[BH3-][N+]1=CC=C(C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2097,42 +2053,42 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[BH3-]C1=[N+](C)C=CN1C</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2142,11 +2098,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2157,22 +2113,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2180,36 +2132,40 @@
           <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SC1=CC=CC=C1</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2224,37 +2180,33 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2269,27 +2221,27 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2299,12 +2251,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2314,27 +2266,27 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2344,12 +2296,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2359,17 +2311,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2389,7 +2341,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2408,13 +2360,13 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2424,17 +2376,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2449,17 +2397,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2469,14 +2417,10 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -2494,17 +2438,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2514,7 +2458,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2524,12 +2468,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2539,17 +2483,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2559,7 +2503,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2569,12 +2513,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2584,27 +2528,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2614,7 +2558,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2629,30 +2573,34 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -2660,7 +2608,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2670,27 +2618,27 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2705,7 +2653,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2715,17 +2663,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2735,10 +2683,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -2756,17 +2708,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>68.59999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2776,22 +2728,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2801,17 +2749,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2821,7 +2769,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2842,7 +2790,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2852,7 +2800,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2862,7 +2810,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2872,12 +2820,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2887,17 +2835,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)Cl)C=C1)OC</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2910,15 +2858,19 @@
           <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2932,13 +2884,13 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2958,7 +2910,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2977,13 +2929,13 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>59.9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3022,13 +2974,13 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3038,14 +2990,10 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3063,7 +3011,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O)C=C1)OC</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)OC)=O)=O</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3073,7 +3021,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3083,7 +3031,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3093,7 +3041,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3108,27 +3056,27 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)OC)=O)=O</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3149,27 +3097,27 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3179,7 +3127,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3194,17 +3142,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O)C=C1)OC</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3214,14 +3162,10 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(OC)C=C1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3229,7 +3173,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3239,11 +3183,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -3254,7 +3198,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3262,10 +3206,14 @@
           <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3280,11 +3228,11 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -3295,7 +3243,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3310,12 +3258,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3325,11 +3273,11 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
@@ -3340,7 +3288,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3355,12 +3303,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3370,11 +3318,11 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -3385,19 +3333,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3415,11 +3359,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3430,12 +3374,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3450,7 +3394,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3460,11 +3404,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3475,18 +3419,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3501,11 +3445,11 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3516,15 +3460,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -3542,7 +3490,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -3557,12 +3505,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3572,12 +3520,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3587,543 +3535,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>C1COCCO1</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
